--- a/tests/Gauges/tLists1_cell_setting.xlsx
+++ b/tests/Gauges/tLists1_cell_setting.xlsx
@@ -282,7 +282,6 @@
       <x:sz val="8"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:b/>
@@ -290,13 +289,11 @@
       <x:color indexed="16"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:sz val="9"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:sz val="9"/>
@@ -357,7 +354,6 @@
       <x:color theme="0"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:u/>
@@ -365,7 +361,6 @@
       <x:color theme="10"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:b/>
@@ -373,7 +368,6 @@
       <x:color indexed="81"/>
       <x:name val="Tahoma"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:b/>
@@ -382,14 +376,12 @@
       <x:color indexed="81"/>
       <x:name val="Tahoma"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="16"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
